--- a/L-COM system (name subject to change)/Parts.xlsx
+++ b/L-COM system (name subject to change)/Parts.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Comms module\L-COM system (name subject to change)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\HAB360\L-COM system (name subject to change)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle parts list" sheetId="1" r:id="rId1"/>
     <sheet name="Order list" sheetId="2" r:id="rId2"/>
+    <sheet name="Comms module specs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="215">
   <si>
     <t>Part type:</t>
   </si>
@@ -324,9 +325,6 @@
     <t>EBYTE_900M_30S</t>
   </si>
   <si>
-    <t>0805?</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -396,9 +394,6 @@
     <t>https://www.digikey.ca/en/products/detail/recom-power/RLS-567/9920569</t>
   </si>
   <si>
-    <t>Surface mount</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/molex/0503518000/2405712</t>
   </si>
   <si>
@@ -435,9 +430,6 @@
     <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPTC152LFBN-RC/810221</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/taoglas-limited/EMPCB-SMAFSTJ-B-HT/3522337</t>
-  </si>
-  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -465,9 +457,6 @@
     <t>200R</t>
   </si>
   <si>
-    <t>Bulk price is less</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
   <si>
@@ -495,12 +484,6 @@
     <t>https://www.digikey.ca/en/products/detail/kemet/C0805C103K4RACTU/2211721</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/kemet/C0805C104K8RACTU/2211745</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/kemet/C0805C106K4PACTU/2211785</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/kemet/T491A336K010AT/1842019</t>
   </si>
   <si>
@@ -589,6 +572,105 @@
   </si>
   <si>
     <t>10k thermistor</t>
+  </si>
+  <si>
+    <t>Clock source</t>
+  </si>
+  <si>
+    <t>TOO BIG</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/molex/0732511150/1465156</t>
+  </si>
+  <si>
+    <t>Cheaper SMA:</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/rf-solutions/CON-SMA-EDGE-S/5845767</t>
+  </si>
+  <si>
+    <t>The footprint is smaller though</t>
+  </si>
+  <si>
+    <t>10K-Therm</t>
+  </si>
+  <si>
+    <t>Cheaper tantalums:</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/avx-corporation/TAJA226K010TNJ/7566973</t>
+  </si>
+  <si>
+    <t>RLS-567, 12-48V?</t>
+  </si>
+  <si>
+    <t>50V min</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/kemet/C0805C106K3PAC7800/5267604</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/kemet/C0805C104K5RACTU/411169</t>
+  </si>
+  <si>
+    <t>Rated 50V</t>
+  </si>
+  <si>
+    <t>All capacitors are cheaper in bulk.</t>
+  </si>
+  <si>
+    <t>If close to to a price break quantity, just add a few extra (May be overall cheaper, or extra parts for later).</t>
+  </si>
+  <si>
+    <t>All resistors are cheaper in bulk.</t>
+  </si>
+  <si>
+    <t>25V, get higher?</t>
+  </si>
+  <si>
+    <t>Vin input (2-pin)</t>
+  </si>
+  <si>
+    <t>Derating by 50% allows us 12V. Max input to regulator is 42V (but that’s way too high). Go for a 50V 1206 later. Or one 0805 for 5V output, and a 1206 for the Vin.</t>
+  </si>
+  <si>
+    <t>Range: 8V to 42V. Reccomended 12V.</t>
+  </si>
+  <si>
+    <t>5V input (4-pin)</t>
+  </si>
+  <si>
+    <t>Range: ~5V.</t>
+  </si>
+  <si>
+    <t>Should be as close to 5V as possible (EBYTE performance depends on it).</t>
+  </si>
+  <si>
+    <t>If bypassing the 8-42V to 5V regulator this way, MUST be a stable/regulated power supply to avoid brownouts and damage.</t>
+  </si>
+  <si>
+    <t>Range: 3.3V (DO NOT USE A 5V PROGRAMMER)</t>
+  </si>
+  <si>
+    <t>The rest of the board should be receiving power via Vin or 5V input to avoid possible damage to the EBYTE module (in the case that the EBYTE is unpowered - ATMEGA data lines are connected to it and may cause damage).</t>
+  </si>
+  <si>
+    <t>Pin header Vin, 5V, 3.3V</t>
+  </si>
+  <si>
+    <t>3.3V ICSP header (programming)</t>
+  </si>
+  <si>
+    <t>Powering via the pin header - use the specifications listed above for the appropriate pin.</t>
+  </si>
+  <si>
+    <t>CD43</t>
+  </si>
+  <si>
+    <t>Need a 328 for program memory and SRAM requirements.</t>
+  </si>
+  <si>
+    <t>1206 (3216)</t>
   </si>
 </sst>
 </file>
@@ -814,7 +896,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -860,6 +942,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
@@ -1155,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1335,9 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>41</v>
       </c>
@@ -1264,13 +1352,13 @@
         <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1283,7 +1371,9 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1335,9 +1425,11 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="K7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I8" s="17"/>
       <c r="K8" s="13" t="s">
@@ -1399,14 +1491,14 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I9" s="17"/>
       <c r="K9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>63</v>
@@ -1421,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="17"/>
       <c r="F10" s="6" t="s">
@@ -1431,14 +1523,14 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>65</v>
@@ -1463,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="17"/>
     </row>
@@ -1472,10 +1564,10 @@
         <v>31</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>40</v>
@@ -1487,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="17"/>
     </row>
@@ -1509,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="17"/>
       <c r="K13" s="10" t="s">
@@ -1573,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I15" s="17"/>
       <c r="K15" s="6" t="s">
@@ -1583,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N15" s="17"/>
     </row>
@@ -1601,10 +1693,10 @@
       <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="17"/>
@@ -1615,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N16" s="17"/>
     </row>
@@ -1631,17 +1723,15 @@
       </c>
       <c r="D17" s="17"/>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I17" s="18"/>
       <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
@@ -1658,10 +1748,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>40</v>
@@ -1774,6 +1864,9 @@
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="17"/>
+      <c r="O25" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1799,7 +1892,9 @@
         <v>94</v>
       </c>
       <c r="M26" s="19"/>
-      <c r="N26" s="18"/>
+      <c r="N26" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1865,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="21"/>
@@ -1894,10 +1989,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="17"/>
@@ -1919,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,11 +2037,11 @@
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="28"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1957,8 +2052,11 @@
       <c r="D2" s="11"/>
       <c r="E2" s="24"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1977,8 +2075,11 @@
       <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1989,16 +2090,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" s="26">
         <v>0.2</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2009,14 +2108,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E5" s="26">
         <v>0.2</v>
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2027,14 +2126,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="E6" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2045,14 +2146,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E7" s="26">
         <v>0.19</v>
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2063,25 +2164,30 @@
         <v>2</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="E8" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C9" s="32">
         <v>2</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E9" s="27">
         <v>0.92</v>
@@ -2090,141 +2196,135 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="9"/>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="B15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="31">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="D15" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="E15" s="26">
         <v>0.15</v>
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="26">
         <v>0.15</v>
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E17" s="26">
         <v>0.15</v>
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E18" s="26">
         <v>0.15</v>
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>11</v>
@@ -2233,288 +2333,273 @@
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E19" s="26">
         <v>0.15</v>
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="32">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="D21" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="27">
         <v>1.62</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="28"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="32">
+      <c r="B26" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="32">
         <v>1</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="27">
+      <c r="D26" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="27">
         <v>1.08</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="28"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C30" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F30" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="B31" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="31">
         <v>1</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="D31" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="26">
         <v>0.25</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="32">
+      <c r="B32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="32">
         <v>1</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="27">
+      <c r="D32" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="27">
         <v>0.3</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="H31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="E32" s="23"/>
-      <c r="H32" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="K32" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="37"/>
+      <c r="F32" s="18"/>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" s="28"/>
       <c r="E33" s="23"/>
-      <c r="H33" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>163</v>
-      </c>
+      <c r="H33" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="K33" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="C34" s="28"/>
+      <c r="E34" s="23"/>
+      <c r="H34" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="9"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="9"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="31">
+      <c r="B37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="31">
         <v>1</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="D37" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="26">
         <v>0.26</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="H36" s="2">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2">
-        <v>40</v>
-      </c>
-      <c r="K36" s="38">
-        <v>100</v>
-      </c>
-      <c r="L36" s="38">
-        <v>72</v>
-      </c>
-      <c r="M36" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="32">
-        <v>2</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0.26</v>
-      </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="17"/>
       <c r="H37" s="2">
         <v>20</v>
       </c>
@@ -2528,16 +2613,41 @@
         <v>72</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="E38" s="23"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="32">
+        <v>2</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="H38" s="2">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2">
+        <v>40</v>
+      </c>
+      <c r="K38" s="38">
+        <v>100</v>
+      </c>
+      <c r="L38" s="38">
+        <v>72</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C39" s="28"/>
@@ -2548,38 +2658,24 @@
       <c r="L39" s="38"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="28"/>
+      <c r="E40" s="23"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="9"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="K41" s="38"/>
@@ -2587,23 +2683,20 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="31">
-        <v>1</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="26">
-        <v>12.85</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2611,24 +2704,24 @@
       <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="32">
+      <c r="A43" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="31">
         <v>1</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="27">
-        <v>0.88</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>170</v>
+      <c r="D43" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="26">
+        <v>12.85</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2636,8 +2729,25 @@
       <c r="L43" s="38"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="32">
+        <v>1</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="K44" s="38"/>
@@ -2652,63 +2762,47 @@
       <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="9"/>
+      <c r="C46" s="28"/>
+      <c r="E46" s="23"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="9"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="32">
-        <v>1</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="27">
-        <v>0.71</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>103</v>
+      <c r="A48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2716,20 +2810,36 @@
       <c r="L48" s="38"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" s="23"/>
+      <c r="A49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="E50" s="23"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2737,38 +2847,24 @@
       <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="9"/>
+      <c r="C51" s="28"/>
+      <c r="E51" s="23"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="9"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="K52" s="38"/>
@@ -2776,73 +2872,87 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="31">
+      <c r="B54" s="43"/>
+      <c r="C54" s="31">
         <v>1</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="26">
+      <c r="D54" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="26">
         <v>3.09</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="H53" s="2">
+      <c r="F54" s="17"/>
+      <c r="H54" s="2">
         <v>6</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I54" s="2">
         <v>19.8</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K54" s="38">
         <v>12</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L54" s="38">
         <v>39.6</v>
       </c>
-      <c r="M53" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="M54" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="32">
+      <c r="B55" s="44"/>
+      <c r="C55" s="32">
         <v>1</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="27">
+      <c r="D55" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="27">
         <v>2.12</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="H54" s="2">
+      <c r="F55" s="18"/>
+      <c r="H55" s="2">
         <v>5</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I55" s="2">
         <v>16.5</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K55" s="38">
         <v>5</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L55" s="38">
         <v>16.5</v>
       </c>
-      <c r="M54" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C55" s="28"/>
-      <c r="E55" s="23"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
+      <c r="M55" s="35" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C56" s="28"/>
@@ -2853,38 +2963,24 @@
       <c r="L56" s="38"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="9"/>
+      <c r="C57" s="28"/>
+      <c r="E57" s="23"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="9"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="K58" s="38"/>
@@ -2892,65 +2988,79 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="31">
-        <v>1</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="F59" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="31">
+        <v>1</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="32">
+      <c r="B61" s="44"/>
+      <c r="C61" s="32">
         <v>1</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="27">
+      <c r="D61" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="27">
         <v>13.44</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="H60" s="2">
+      <c r="F61" s="18"/>
+      <c r="H61" s="2">
         <v>650</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I61" s="2">
         <v>3250</v>
       </c>
-      <c r="K60" s="38">
+      <c r="K61" s="38">
         <v>750</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L61" s="38">
         <v>3750</v>
       </c>
-      <c r="M60" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="N60" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="28"/>
-      <c r="E61" s="23"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
+      <c r="M61" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C62" s="28"/>
@@ -2961,62 +3071,48 @@
       <c r="L62" s="38"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="9"/>
+      <c r="C63" s="28"/>
+      <c r="E63" s="23"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="9"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="31">
-        <v>1</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="F65" s="17"/>
+      <c r="A65" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="K65" s="38"/>
@@ -3024,21 +3120,23 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="31">
         <v>1</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E66" s="26">
-        <v>0.49</v>
-      </c>
-      <c r="F66" s="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="K66" s="38"/>
@@ -3046,19 +3144,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" s="31">
         <v>1</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E67" s="26">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="F67" s="17"/>
       <c r="H67" s="2"/>
@@ -3068,19 +3166,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C68" s="31">
         <v>1</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E68" s="26">
-        <v>2.63</v>
+        <v>0.62</v>
       </c>
       <c r="F68" s="17"/>
       <c r="H68" s="2"/>
@@ -3089,100 +3187,78 @@
       <c r="L68" s="38"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="32">
+      <c r="A69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="31">
         <v>1</v>
       </c>
-      <c r="D69" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="27">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="F69" s="18"/>
+      <c r="D69" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="26">
+        <v>2.63</v>
+      </c>
+      <c r="F69" s="17"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E70" s="23"/>
+      <c r="A70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="32">
+        <v>1</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="27">
+        <v>4.97</v>
+      </c>
+      <c r="F70" s="18"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="K70" s="38"/>
       <c r="L70" s="38"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E71" s="23"/>
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="9"/>
+      <c r="A72" t="s">
+        <v>187</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="32">
-        <v>1</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="27">
-        <v>8.07</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="E74" s="23"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="K74" s="38"/>
@@ -3196,46 +3272,63 @@
       <c r="L75" s="38"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E76" s="23"/>
+      <c r="A76" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="9"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="K76" s="38"/>
       <c r="L76" s="38"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="9"/>
+      <c r="A77" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="K77" s="38"/>
       <c r="L77" s="38"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>13</v>
+      <c r="A78" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="32">
+        <v>1</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="27">
+        <v>8.07</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3243,288 +3336,424 @@
       <c r="L78" s="38"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="32">
-        <v>1</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="27">
-        <v>0</v>
-      </c>
-      <c r="F79" s="18"/>
+      <c r="E79" s="23"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E80" s="23"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H81" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="L81" s="36" t="s">
-        <v>177</v>
-      </c>
+      <c r="A81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="9"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E82" s="23">
-        <f>SUMPRODUCT(C1:C79,E1:E79)</f>
-        <v>61.879999999999995</v>
-      </c>
-      <c r="H82" s="37">
-        <f>SUM(H1:H79)</f>
+      <c r="A82" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="32">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="27">
+        <v>0</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H85" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="I85" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E86" s="23">
+        <f>SUMPRODUCT(C1:C83,E1:E83)</f>
+        <v>62.239999999999995</v>
+      </c>
+      <c r="H86" s="37">
+        <f>SUM(H1:H83)</f>
         <v>701</v>
       </c>
-      <c r="I82" s="37">
-        <f>SUM(I1:I79)</f>
+      <c r="I86" s="37">
+        <f>SUM(I1:I83)</f>
         <v>3366.3</v>
       </c>
-      <c r="K82" s="37">
-        <f>SUM(K1:K79)</f>
+      <c r="K86" s="37">
+        <f>SUM(K1:K83)</f>
         <v>967</v>
       </c>
-      <c r="L82" s="37">
-        <f>SUM(L1:L79)</f>
+      <c r="L86" s="37">
+        <f>SUM(L1:L83)</f>
         <v>3950.1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E83" s="23"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E84" s="23"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E85" s="23"/>
-    </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="E89" s="23"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="B93" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="30" t="s">
+      <c r="B94" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D94" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E94" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F94" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="31">
+        <v>1</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="31">
+        <v>1</v>
+      </c>
+      <c r="D96" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="31">
+      <c r="E96" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="32">
         <v>1</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D97" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="31">
+      <c r="B102" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="31">
         <v>1</v>
       </c>
-      <c r="D92" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" s="26">
-        <v>0.38</v>
-      </c>
-      <c r="F92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="32">
+      <c r="D102" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="26">
+        <v>6.29</v>
+      </c>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="32">
         <v>1</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" s="27">
-        <v>0.27</v>
-      </c>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="11" t="s">
+      <c r="D103" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" s="26">
-        <v>6.29</v>
-      </c>
-      <c r="F98" s="17"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="32">
-        <v>1</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" s="27">
+      <c r="E103" s="27">
         <v>4.74</v>
       </c>
-      <c r="F99" s="18"/>
+      <c r="F103" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D43" r:id="rId1"/>
-    <hyperlink ref="D91" r:id="rId2"/>
-    <hyperlink ref="D92" r:id="rId3"/>
-    <hyperlink ref="D93" r:id="rId4"/>
-    <hyperlink ref="D67" r:id="rId5"/>
-    <hyperlink ref="D66" r:id="rId6"/>
-    <hyperlink ref="D60" r:id="rId7"/>
-    <hyperlink ref="D59" r:id="rId8"/>
-    <hyperlink ref="D54" r:id="rId9"/>
-    <hyperlink ref="D53" r:id="rId10"/>
-    <hyperlink ref="D42" r:id="rId11"/>
-    <hyperlink ref="D31" r:id="rId12"/>
-    <hyperlink ref="D30" r:id="rId13"/>
-    <hyperlink ref="D25" r:id="rId14"/>
-    <hyperlink ref="D69" r:id="rId15"/>
-    <hyperlink ref="D68" r:id="rId16"/>
-    <hyperlink ref="D65" r:id="rId17"/>
-    <hyperlink ref="D74" r:id="rId18"/>
-    <hyperlink ref="D99" r:id="rId19"/>
-    <hyperlink ref="D98" r:id="rId20"/>
-    <hyperlink ref="D37" r:id="rId21"/>
-    <hyperlink ref="D36" r:id="rId22"/>
-    <hyperlink ref="D19" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="D17" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805JT1K80/1757793?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAmDoRoIZJHTZ8RUhWo0AHIxbtIXXoJHjwldfRlyFuAsUhkADFpBsO3fsLEEad9QFYEs1EwrZVtwADp1AAIAawB5AA"/>
-    <hyperlink ref="D16" r:id="rId25"/>
-    <hyperlink ref="D15" r:id="rId26"/>
-    <hyperlink ref="D14" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805ZT0R00/1756901?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvjAA2eCCSQ0WPIRIgAzDRUw6jEK3Zc%2BQ0eM0RoMlBhz4ikUmo0UGzNpE48BwseBoU6Z2fJWSrYgZE46Lm4Gnvgwl"/>
+    <hyperlink ref="D44" r:id="rId1"/>
+    <hyperlink ref="D95" r:id="rId2"/>
+    <hyperlink ref="D96" r:id="rId3"/>
+    <hyperlink ref="D97" r:id="rId4"/>
+    <hyperlink ref="D68" r:id="rId5"/>
+    <hyperlink ref="D67" r:id="rId6"/>
+    <hyperlink ref="D61" r:id="rId7"/>
+    <hyperlink ref="D60" r:id="rId8"/>
+    <hyperlink ref="D55" r:id="rId9"/>
+    <hyperlink ref="D54" r:id="rId10"/>
+    <hyperlink ref="D43" r:id="rId11"/>
+    <hyperlink ref="D32" r:id="rId12"/>
+    <hyperlink ref="D31" r:id="rId13"/>
+    <hyperlink ref="D26" r:id="rId14"/>
+    <hyperlink ref="D70" r:id="rId15"/>
+    <hyperlink ref="D69" r:id="rId16"/>
+    <hyperlink ref="D66" r:id="rId17"/>
+    <hyperlink ref="D78" r:id="rId18"/>
+    <hyperlink ref="D103" r:id="rId19"/>
+    <hyperlink ref="D102" r:id="rId20"/>
+    <hyperlink ref="D38" r:id="rId21"/>
+    <hyperlink ref="D37" r:id="rId22"/>
+    <hyperlink ref="D20" r:id="rId23"/>
+    <hyperlink ref="D19" r:id="rId24"/>
+    <hyperlink ref="D18" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805JT1K80/1757793?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAmDoRoIZJHTZ8RUhWo0AHIxbtIXXoJHjwldfRlyFuAsUhkADFpBsO3fsLEEad9QFYEs1EwrZVtwADp1AAIAawB5AA"/>
+    <hyperlink ref="D17" r:id="rId25"/>
+    <hyperlink ref="D16" r:id="rId26"/>
+    <hyperlink ref="D15" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805ZT0R00/1756901?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvjAA2eCCSQ0WPIRIgAzDRUw6jEK3Zc%2BQ0eM0RoMlBhz4ikUmo0UGzNpE48BwseBoU6Z2fJWSrYgZE46Lm4Gnvgwl"/>
     <hyperlink ref="D9" r:id="rId27"/>
     <hyperlink ref="D8" r:id="rId28"/>
     <hyperlink ref="D7" r:id="rId29"/>
     <hyperlink ref="D6" r:id="rId30"/>
     <hyperlink ref="D5" r:id="rId31"/>
     <hyperlink ref="D4" r:id="rId32"/>
-    <hyperlink ref="D48" r:id="rId33"/>
-    <hyperlink ref="D20" r:id="rId34"/>
+    <hyperlink ref="D49" r:id="rId33"/>
+    <hyperlink ref="D21" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/L-COM system (name subject to change)/Parts.xlsx
+++ b/L-COM system (name subject to change)/Parts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="216">
   <si>
     <t>Part type:</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Male-male Molex Mini-Lock connectors (individual parts)</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61200621621/4846913</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPTC152LFBN-RC/810221</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Clock source</t>
   </si>
   <si>
-    <t>TOO BIG</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/molex/0732511150/1465156</t>
   </si>
   <si>
@@ -671,6 +665,15 @@
   </si>
   <si>
     <t>1206 (3216)</t>
+  </si>
+  <si>
+    <t>4x M2 screws</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/amphenol-icc-fci/69168-106HLF/1002738</t>
+  </si>
+  <si>
+    <t>TEST PART</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -950,6 +953,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -1239,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O35"/>
+  <dimension ref="A2:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>41</v>
@@ -1352,13 +1357,13 @@
         <v>55</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1372,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>42</v>
@@ -1425,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>100</v>
@@ -1457,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="17"/>
       <c r="K8" s="13" t="s">
@@ -1523,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="7" t="s">
@@ -1564,10 +1569,10 @@
         <v>31</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>40</v>
@@ -1675,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N15" s="17"/>
     </row>
@@ -1707,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N16" s="17"/>
     </row>
@@ -1748,10 +1753,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>40</v>
@@ -1865,7 +1870,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="17"/>
       <c r="O25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1893,7 +1898,7 @@
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1960,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="21"/>
@@ -1989,10 +1994,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="17"/>
@@ -2006,6 +2011,11 @@
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2016,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2063,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="9"/>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="26">
         <v>0.2</v>
@@ -2108,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="26">
         <v>0.2</v>
@@ -2126,13 +2136,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="26">
         <v>0.21</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="26">
         <v>0.19</v>
@@ -2164,30 +2174,30 @@
         <v>2</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8" s="26">
         <v>0.38</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" t="s">
         <v>199</v>
-      </c>
-      <c r="G8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="32">
         <v>2</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="27">
         <v>0.92</v>
@@ -2198,10 +2208,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,7 +2234,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="9"/>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="26">
         <v>0.15</v>
@@ -2270,7 +2280,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>11</v>
@@ -2279,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="26">
         <v>0.15</v>
@@ -2297,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="26">
         <v>0.15</v>
@@ -2315,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="26">
         <v>0.15</v>
@@ -2333,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="26">
         <v>0.15</v>
@@ -2351,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="26">
         <v>0.15</v>
@@ -2360,7 +2370,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>11</v>
@@ -2369,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="27">
         <v>1.62</v>
@@ -2421,7 +2431,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
@@ -2512,18 +2522,18 @@
       </c>
       <c r="F32" s="18"/>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" s="28"/>
       <c r="E33" s="23"/>
       <c r="H33" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I33" s="37"/>
       <c r="K33" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L33" s="37"/>
     </row>
@@ -2531,16 +2541,16 @@
       <c r="C34" s="28"/>
       <c r="E34" s="23"/>
       <c r="H34" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I34" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="K34" s="36" t="s">
-        <v>158</v>
-      </c>
       <c r="L34" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2594,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="26">
         <v>0.26</v>
@@ -2613,12 +2623,12 @@
         <v>72</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>11</v>
@@ -2627,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="27">
         <v>0.26</v>
@@ -2646,7 +2656,7 @@
         <v>72</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2718,10 +2728,10 @@
         <v>12.85</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2743,10 +2753,10 @@
         <v>0.88</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2811,7 +2821,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>11</v>
@@ -2820,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49" s="27">
         <v>0.71</v>
@@ -2835,10 +2845,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="E50" s="23"/>
       <c r="H50" s="2"/>
@@ -2920,7 +2930,7 @@
         <v>39.6</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2951,7 +2961,7 @@
         <v>16.5</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3010,14 +3020,14 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="31">
         <v>1</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="26">
         <v>0.49</v>
@@ -3056,10 +3066,10 @@
         <v>3750</v>
       </c>
       <c r="M61" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3129,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E66" s="26">
         <v>0.65</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>183</v>
+      <c r="F66" s="45" t="s">
+        <v>215</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3197,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E69" s="26">
         <v>2.63</v>
@@ -3219,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E70" s="27">
         <v>4.97</v>
@@ -3232,10 +3242,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>184</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3244,7 +3254,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3276,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="11"/>
@@ -3292,13 +3302,13 @@
         <v>62</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>12</v>
@@ -3313,22 +3323,22 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="32">
         <v>1</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" s="27">
         <v>8.07</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3354,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="11"/>
@@ -3370,13 +3380,13 @@
         <v>62</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>12</v>
@@ -3419,16 +3429,16 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H85" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I85" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="I85" s="36" t="s">
-        <v>171</v>
-      </c>
       <c r="K85" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L85" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="L85" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3650,26 +3660,26 @@
     <hyperlink ref="D26" r:id="rId14"/>
     <hyperlink ref="D70" r:id="rId15"/>
     <hyperlink ref="D69" r:id="rId16"/>
-    <hyperlink ref="D66" r:id="rId17"/>
-    <hyperlink ref="D78" r:id="rId18"/>
-    <hyperlink ref="D103" r:id="rId19"/>
-    <hyperlink ref="D102" r:id="rId20"/>
-    <hyperlink ref="D38" r:id="rId21"/>
-    <hyperlink ref="D37" r:id="rId22"/>
-    <hyperlink ref="D20" r:id="rId23"/>
-    <hyperlink ref="D19" r:id="rId24"/>
+    <hyperlink ref="D78" r:id="rId17"/>
+    <hyperlink ref="D103" r:id="rId18"/>
+    <hyperlink ref="D102" r:id="rId19"/>
+    <hyperlink ref="D38" r:id="rId20"/>
+    <hyperlink ref="D37" r:id="rId21"/>
+    <hyperlink ref="D20" r:id="rId22"/>
+    <hyperlink ref="D19" r:id="rId23"/>
     <hyperlink ref="D18" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805JT1K80/1757793?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAmDoRoIZJHTZ8RUhWo0AHIxbtIXXoJHjwldfRlyFuAsUhkADFpBsO3fsLEEad9QFYEs1EwrZVtwADp1AAIAawB5AA"/>
-    <hyperlink ref="D17" r:id="rId25"/>
-    <hyperlink ref="D16" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
     <hyperlink ref="D15" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805ZT0R00/1756901?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvjAA2eCCSQ0WPIRIgAzDRUw6jEK3Zc%2BQ0eM0RoMlBhz4ikUmo0UGzNpE48BwseBoU6Z2fJWSrYgZE46Lm4Gnvgwl"/>
-    <hyperlink ref="D9" r:id="rId27"/>
-    <hyperlink ref="D8" r:id="rId28"/>
-    <hyperlink ref="D7" r:id="rId29"/>
-    <hyperlink ref="D6" r:id="rId30"/>
-    <hyperlink ref="D5" r:id="rId31"/>
-    <hyperlink ref="D4" r:id="rId32"/>
-    <hyperlink ref="D49" r:id="rId33"/>
-    <hyperlink ref="D21" r:id="rId34"/>
+    <hyperlink ref="D9" r:id="rId26"/>
+    <hyperlink ref="D8" r:id="rId27"/>
+    <hyperlink ref="D7" r:id="rId28"/>
+    <hyperlink ref="D6" r:id="rId29"/>
+    <hyperlink ref="D5" r:id="rId30"/>
+    <hyperlink ref="D4" r:id="rId31"/>
+    <hyperlink ref="D49" r:id="rId32"/>
+    <hyperlink ref="D21" r:id="rId33"/>
+    <hyperlink ref="B71" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>
@@ -3688,7 +3698,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3696,12 +3706,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3709,22 +3719,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -3732,17 +3742,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3750,7 +3760,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
